--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3449343.044083343</v>
+        <v>3447455.462566942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>172.0766384386615</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.71515407472047</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>257.0152846411285</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.6638564154457</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>78.49471243660454</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750031</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>283.3580910135641</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.12772045570952</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>101.4950386131042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>217.6716772903243</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.315822205651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.2898147863552</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056508</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533807</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700712</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>25.34051740971838</v>
       </c>
       <c r="F31" t="n">
-        <v>73.3345844021575</v>
+        <v>90.21779139437461</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.290311834821</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523617</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550466</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298326</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700207</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952714</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080344</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604805</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235382</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898724</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415221</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224542</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1800.761432218458</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1442.495733611708</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1056.707481013463</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>645.7215762238559</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>227.7577681220428</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>554.3221432721089</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>554.3221432721089</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>554.3221432721089</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>143.3362384825013</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>129.4128344210922</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>129.4128344210922</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937432</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339188</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495801</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>313.554380447767</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,52 +5024,52 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643328</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5103,43 +5103,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>452.0983189327457</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>698.8634468392104</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119173</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783206</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085866</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821614</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471204</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119731</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>764.7404518075995</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5255,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795201</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899126</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5340,43 +5340,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>901.6749225845934</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203135</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867169</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085866</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821614</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387593</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5577,43 +5577,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147089</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>1026.505047571598</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851561</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515594</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039404</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821614</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014066</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014066</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014066</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014066</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765182</v>
+        <v>898.7925182488409</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706313</v>
+        <v>644.1080300429541</v>
       </c>
       <c r="W19" t="n">
-        <v>241.980548233671</v>
+        <v>644.1080300429541</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.1184791449367</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014066</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5814,37 +5814,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126631</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059516</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278214</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836234</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836234</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836234</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836234</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7373324836234</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488411</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>898.7925182488411</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118805</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>381.3857973138631</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>381.3857973138631</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765183</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706315</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336707</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,49 +6224,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.5300356889275</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.5300356889275</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.5300356889275</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765181</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706311</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336705</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>199.5300356889275</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572957</v>
+        <v>439.5324299542106</v>
       </c>
       <c r="C31" t="n">
-        <v>470.5162571107596</v>
+        <v>326.357112307674</v>
       </c>
       <c r="D31" t="n">
-        <v>470.5162571107596</v>
+        <v>326.357112307674</v>
       </c>
       <c r="E31" t="n">
-        <v>378.3640288097373</v>
+        <v>300.7606300756349</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>209.6315478590949</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864667</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933492</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667495</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962032</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286022</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.39040735369</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021643</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056071</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899266</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1736.652680096189</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970147</v>
+        <v>1568.628130167065</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465076</v>
+        <v>1335.260356661994</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.49587854056</v>
+        <v>1136.336733737477</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.83957378497</v>
+        <v>902.6804289818867</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683238</v>
+        <v>730.4517433652397</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061645</v>
+        <v>565.4200295030799</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6938,46 +6938,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254954</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7181,43 +7181,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,22 +7421,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7783,34 +7783,34 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,16 +7825,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929713</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.661214550443</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>189.002242766242</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,13 +9170,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627383</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>381.3739760657701</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627383</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806581</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>87.16935584025339</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>297.3877236703352</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.91120742583809</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.0528486217847</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338616</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.879261385013278</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722172</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>64.99852985027339</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>68.56567510825302</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338616</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>45.14414786021395</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338636</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965573</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>65.89018860829415</v>
       </c>
       <c r="F31" t="n">
-        <v>16.88320699221662</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389795</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>55.21598883571536</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372857</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733325.5542505177</v>
+        <v>733325.5542505175</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.854540991</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="J2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542225</v>
+        <v>711938.7403542234</v>
       </c>
       <c r="L2" t="n">
         <v>718411.5486312482</v>
@@ -26347,13 +26347,13 @@
         <v>718411.5486312484</v>
       </c>
       <c r="N2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="O2" t="n">
+        <v>718411.5486312486</v>
+      </c>
+      <c r="P2" t="n">
         <v>718411.5486312485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>718411.5486312482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>718411.5486312483</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284514</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086724</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.6053028453</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687065</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687065</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687077</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687074</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106711</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819122</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022275</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-120048.2764332306</v>
       </c>
       <c r="C6" t="n">
+        <v>469919.6027813141</v>
+      </c>
+      <c r="D6" t="n">
         <v>469919.6027813138</v>
       </c>
-      <c r="D6" t="n">
-        <v>469919.6027813139</v>
-      </c>
       <c r="E6" t="n">
-        <v>44978.88452850707</v>
+        <v>44881.42540253421</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794313</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794313</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.9210054027</v>
+        <v>570041.4618794313</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054032</v>
+        <v>570041.4618794317</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.7018128099</v>
+        <v>393618.242686838</v>
       </c>
       <c r="K6" t="n">
-        <v>530808.6964200868</v>
+        <v>530790.202682154</v>
       </c>
       <c r="L6" t="n">
-        <v>565760.1411821647</v>
+        <v>565760.1411821643</v>
       </c>
       <c r="M6" t="n">
-        <v>441302.0327491949</v>
+        <v>441302.0327491947</v>
       </c>
       <c r="N6" t="n">
-        <v>576103.047983032</v>
+        <v>576103.0479830318</v>
       </c>
       <c r="O6" t="n">
-        <v>576103.0479830315</v>
+        <v>576103.0479830321</v>
       </c>
       <c r="P6" t="n">
-        <v>531940.442680186</v>
+        <v>531940.4426801867</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108405</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855662</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.638741237015</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-1.448629342420676e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855663</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>151.8461343256956</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332972</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>77.21616217014078</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>66.90748812322863</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855663</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>316.555707380911</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178385</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714625</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109007</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594841</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>499.426619816709</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714625</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951412</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594841</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>663.737678306879</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951412</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>546.4549645786717</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813616</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>343.0950860824988</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412215</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584672</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084851</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075292</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341602</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491595</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403574</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043138</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494724</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520611</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37479,10 +37479,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>630.582297068348</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>373.3355844763043</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
